--- a/data/人物设定/空白女主属性表格.xlsx
+++ b/data/人物设定/空白女主属性表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39dced17c821e64c/ERA/DEVELOP/eraMyGame/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYGAME\data\人物设定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="13_ncr:1_{9EF4C1A6-9CD2-4554-99EE-C8B059E28311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F50898-CEC5-4404-9A99-F1A381773EFB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951C78DD-5380-4E21-AB9A-5F3F295F6E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
   </bookViews>
   <sheets>
     <sheet name="人物基本属性" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>霍震霖</author>
+    <author>SISAN WONG</author>
   </authors>
   <commentList>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{18E1A75D-C4F3-4D87-A770-C1CB3CA9075E}">
@@ -629,6 +630,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="O40" authorId="1" shapeId="0" xr:uid="{3EE94826-E316-41D3-BE2A-37BF6D408E1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>SISAN WONG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+16进制RGB颜色</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G42" authorId="0" shapeId="0" xr:uid="{DEC38E90-243E-470F-87A5-6DE4F44C7315}">
       <text>
         <r>
@@ -1095,7 +1122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G52" authorId="0" shapeId="0" xr:uid="{F51FE958-7BAE-480A-B02A-861CB8D220C7}">
+    <comment ref="G54" authorId="0" shapeId="0" xr:uid="{8842D81E-3DA1-4F78-ABB0-ADD086F718A4}">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1172,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>9~18mm</t>
+          <t>500~800ml</t>
         </r>
         <r>
           <rPr>
@@ -1159,67 +1186,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="G54" authorId="0" shapeId="0" xr:uid="{8842D81E-3DA1-4F78-ABB0-ADD086F718A4}">
+    <comment ref="I54" authorId="1" shapeId="0" xr:uid="{0C55389D-AB8E-43BC-8BD5-75AF2F2EA9C8}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="DengXian"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>霍震霖</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>SISAN WONG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="DengXian"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>（</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>500~800ml</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="DengXian"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>）</t>
+（9-18mm）</t>
         </r>
       </text>
     </comment>
@@ -1540,7 +1529,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1811,15 +1800,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 直径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乳孔直径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>此表更新日期为2023/6/22/17:00 作者:上次我们攻略了大书库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大可插入直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最大可插入直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳孔直径（最大可插入直径）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1827,7 +1828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1920,6 +1921,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1943,7 +1959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1965,16 +1981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1983,18 +1990,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2097,7 +2116,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2393,10 +2412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584BD9E-FC3E-42A2-B47B-D4BFC192C852}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L50" sqref="L48:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2414,7 +2433,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2480,7 +2499,7 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="6">
@@ -2493,7 +2512,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2502,7 +2521,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6">
@@ -2515,7 +2534,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2524,7 +2543,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="6">
@@ -2537,7 +2556,7 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2546,7 +2565,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="6">
@@ -2559,7 +2578,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2568,7 +2587,7 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6">
@@ -2581,7 +2600,7 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2590,23 +2609,23 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
@@ -2618,167 +2637,167 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="7"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="7"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:16">
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:16">
+      <c r="A36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>0</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -2790,33 +2809,33 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="10"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+    <row r="37" spans="1:16">
+      <c r="A37" s="14"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A38" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="13">
         <v>1</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="13">
         <v>0</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="14" t="s">
+      <c r="F38" s="13"/>
+      <c r="G38" s="10" t="s">
         <v>63</v>
       </c>
       <c r="H38" s="6"/>
@@ -2826,27 +2845,27 @@
       <c r="J38" s="6"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="8"/>
+    <row r="39" spans="1:16">
+      <c r="A39" s="14"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:16">
+      <c r="A40" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="13">
         <v>2</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -2861,20 +2880,24 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L40" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="8"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2884,24 +2907,28 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="10" t="s">
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="13">
         <v>3</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="13">
         <v>0</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="6" t="s">
         <v>64</v>
       </c>
@@ -2912,27 +2939,27 @@
       <c r="J42" s="6"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="8"/>
+    <row r="43" spans="1:16">
+      <c r="A43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:16">
+      <c r="A44" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="13">
         <v>-2</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -2943,17 +2970,17 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="10"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="8"/>
+    <row r="45" spans="1:16">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -2963,23 +2990,23 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:16">
+      <c r="A46" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="13">
         <v>-2</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="13">
         <v>0</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="13"/>
       <c r="G46" s="6" t="s">
         <v>66</v>
       </c>
@@ -2988,27 +3015,27 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="8"/>
+    <row r="47" spans="1:16">
+      <c r="A47" s="14"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:16" ht="14.25" customHeight="1">
+      <c r="A48" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="13">
         <v>1</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -3018,12 +3045,12 @@
         <v>0</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="14" t="s">
-        <v>64</v>
+      <c r="G48" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="H48" s="6"/>
-      <c r="I48" s="7" t="s">
-        <v>67</v>
+      <c r="I48" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="s">
@@ -3034,36 +3061,36 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="8"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="14"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="7"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="13">
         <v>-2</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="13">
         <v>0</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="6" t="s">
         <v>66</v>
       </c>
@@ -3073,12 +3100,12 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="10"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="8"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="1"/>
@@ -3086,13 +3113,13 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="13">
         <v>-3</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -3102,82 +3129,82 @@
         <v>0</v>
       </c>
       <c r="F52" s="6"/>
-      <c r="G52" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H52" s="6"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="10"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="8"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="13">
         <v>-1</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="13">
         <v>0</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="13"/>
       <c r="G54" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="6" t="s">
@@ -3202,36 +3229,36 @@
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>0</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:12">
@@ -3241,7 +3268,112 @@
       <c r="G64" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="129">
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K40:M41"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:F29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:F31"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="G20:G33"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A56:F57"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="B58:F59"/>
     <mergeCell ref="B60:F61"/>
     <mergeCell ref="G16:G17"/>
@@ -3266,110 +3398,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A56:F57"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A32:F33"/>
-    <mergeCell ref="G20:G33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:F31"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J48:J49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3419,7 +3447,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="6"/>
@@ -3827,146 +3855,146 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="6" t="s">

--- a/data/人物设定/空白女主属性表格.xlsx
+++ b/data/人物设定/空白女主属性表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39dced17c821e64c/ERA/DEVELOP/eraMyGame/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39dced17c821e64c/ERA/DEVELOP/MYGAME/data/人物设定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="13_ncr:1_{9EF4C1A6-9CD2-4554-99EE-C8B059E28311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88F50898-CEC5-4404-9A99-F1A381773EFB}"/>
+  <xr:revisionPtr revIDLastSave="564" documentId="13_ncr:1_{9EF4C1A6-9CD2-4554-99EE-C8B059E28311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D900D38-3B54-4EC8-8126-72EE2A64D1BD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
   </bookViews>
   <sheets>
     <sheet name="人物基本属性" sheetId="1" r:id="rId1"/>
@@ -1095,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G52" authorId="0" shapeId="0" xr:uid="{F51FE958-7BAE-480A-B02A-861CB8D220C7}">
+    <comment ref="G54" authorId="0" shapeId="0" xr:uid="{8842D81E-3DA1-4F78-ABB0-ADD086F718A4}">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1145,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>9~18mm</t>
+          <t>500~800ml</t>
         </r>
         <r>
           <rPr>
@@ -1159,7 +1159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G54" authorId="0" shapeId="0" xr:uid="{8842D81E-3DA1-4F78-ABB0-ADD086F718A4}">
+    <comment ref="I54" authorId="0" shapeId="0" xr:uid="{5C26C862-6FCA-4338-A4FD-2A3C5CE43E7D}">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1209,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>500~800ml</t>
+          <t>9~18mm</t>
         </r>
         <r>
           <rPr>
@@ -1540,7 +1540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1811,15 +1811,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 直径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>乳孔直径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>此表更新日期为2023/6/22/17:00 作者:上次我们攻略了大书库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大可插入直径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1943,7 +1943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1977,20 +1977,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2050,10 +2047,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2393,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584BD9E-FC3E-42A2-B47B-D4BFC192C852}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2410,11 +2403,15 @@
     <col min="7" max="7" width="55.75" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
+    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2502,7 +2499,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6">
@@ -2515,7 +2512,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2590,31 +2587,43 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="G18" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7">
@@ -2746,32 +2755,32 @@
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+    <row r="33" spans="1:14">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:14">
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:14">
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:14">
       <c r="A36" s="10" t="s">
         <v>16</v>
       </c>
@@ -2790,7 +2799,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:14">
       <c r="A37" s="10"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2799,7 +2808,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="14.25" customHeight="1">
+    <row r="38" spans="1:14" ht="14.25" customHeight="1">
       <c r="A38" s="10" t="s">
         <v>17</v>
       </c>
@@ -2816,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H38" s="6"/>
@@ -2826,20 +2835,20 @@
       <c r="J38" s="6"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:14">
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="8"/>
       <c r="D39" s="6"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="14"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:14">
       <c r="A40" s="10" t="s">
         <v>20</v>
       </c>
@@ -2861,17 +2870,21 @@
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="N40" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:14">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
       <c r="C41" s="8"/>
@@ -2884,8 +2897,10 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="10" t="s">
         <v>21</v>
       </c>
@@ -2912,7 +2927,7 @@
       <c r="J42" s="6"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:14">
       <c r="A43" s="10"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
@@ -2925,7 +2940,7 @@
       <c r="J43" s="6"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:14">
       <c r="A44" s="10" t="s">
         <v>22</v>
       </c>
@@ -2950,7 +2965,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:14">
       <c r="A45" s="10"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
@@ -2963,7 +2978,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:14">
       <c r="A46" s="10" t="s">
         <v>23</v>
       </c>
@@ -2988,7 +3003,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:14">
       <c r="A47" s="10"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
@@ -3001,7 +3016,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:12" ht="14.25" customHeight="1">
+    <row r="48" spans="1:14" ht="14.25" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>24</v>
       </c>
@@ -3018,12 +3033,12 @@
         <v>0</v>
       </c>
       <c r="F48" s="6"/>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="6" t="s">
         <v>64</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="s">
@@ -3040,7 +3055,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="14"/>
+      <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="7"/>
       <c r="J49" s="6"/>
@@ -3102,9 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="6"/>
-      <c r="G52" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3144,7 +3157,9 @@
         <v>66</v>
       </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
@@ -3157,27 +3172,27 @@
       <c r="F55" s="9"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="6" t="s">
@@ -3224,14 +3239,14 @@
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:12">
@@ -3241,15 +3256,16 @@
       <c r="G64" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="B58:F59"/>
-    <mergeCell ref="B60:F61"/>
-    <mergeCell ref="G16:G17"/>
+  <mergeCells count="130">
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="A16:F19"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A16:F17"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -3266,9 +3282,15 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B58:F59"/>
+    <mergeCell ref="B60:F61"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A56:F57"/>
     <mergeCell ref="G44:G45"/>
@@ -3278,19 +3300,11 @@
     <mergeCell ref="G52:G53"/>
     <mergeCell ref="G54:G55"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:F55"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:F49"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="A36:A37"/>
@@ -3301,6 +3315,19 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="A32:F33"/>
     <mergeCell ref="G20:G33"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H50:H51"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="A6:A7"/>
@@ -3320,21 +3347,6 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:F55"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="H38:H39"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="B20:F21"/>
@@ -3348,12 +3360,17 @@
     <mergeCell ref="B28:F29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:F31"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I40:I41"/>
     <mergeCell ref="D52:D53"/>
     <mergeCell ref="E52:F53"/>
     <mergeCell ref="C54:C55"/>
-    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:F47"/>
     <mergeCell ref="H52:H53"/>
     <mergeCell ref="H54:H55"/>
     <mergeCell ref="L48:L49"/>
